--- a/biology/Botanique/Asterales/Asterales.xlsx
+++ b/biology/Botanique/Asterales/Asterales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asterales sont un ordre de plantes dicotylédones très riche en espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cet ordre sont pour la plupart des herbacées annuelles ou vivaces ; cependant, il y a aussi des arbustes et des arbres.
 Les feuilles sont pour la plupart disposées en alternance et n'ont pas de stipules. Ils peuvent être pétiolés ou sessiles. Le limbe est entier (simple) ou lobé-penné (composé) avec des bords entiers et dentés-dentelés.
@@ -544,7 +558,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hormis les trois familles cosmopolites Campanulaceae, Asteraceae et Menyanthaceae qui ont des centres de diversité en Afrique australe, en Amérique du Sud (zones andines), mais aussi en Eurasie (entre la Méditerranée et l'Himalaya), toutes les autres familles de l'ordre sont principalement concentrées dans l'hémisphère sud (surtout en l'Australie). L'habitat est parmi les plus diversifiés (lié aux zones tempérées, subtropicales ou tropicales, mais aussi subarctique).
 </t>
@@ -577,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Classification actuelle
-En classification phylogénétique APG III (2009)[1], la circonscription est :
+          <t>Classification actuelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG III (2009), la circonscription est :
 ordre Asterales Link (1829)
 : famille Alseuosmiaceae Airy Shaw (1965)
 : famille Argophyllaceae Takht. (1987)
@@ -591,9 +612,44 @@
 : famille Phellinaceae Takht. (1967)
 : famille Rousseaceae DC. (1839)
 : famille Stylidiaceae R.Br. (1810) (incluant Donatiaceae B.Chandler)
-Un cladogramme simplifié basé sur un travail de Takhtajjan (1997) décrit les relations au sein des Astérales comme suit[2] :
-Anciennes classifications
-En classification phylogénétique APG II (2003)[3], la circonscription est :
+Un cladogramme simplifié basé sur un travail de Takhtajjan (1997) décrit les relations au sein des Astérales comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Asterales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asterales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anciennes classifications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG II (2003), la circonscription est :
 ordre Asterales
 : famille Alseuosmiaceae
 : famille Argophyllaceae
@@ -608,7 +664,7 @@
 : famille Rousseaceae (incl. Carpodetaceae)
 : famille Stylidiaceae
 :: [+ famille Donatiaceae ]
-En classification phylogénétique APG (1998)[4], la circonscription est :
+En classification phylogénétique APG (1998), la circonscription est :
 ordre Asterales
 : famille Alseuosmiaceae
 : famille Argophyllaceae
@@ -625,7 +681,7 @@
 : famille Rousseaceae
 : famille Stylidiaceae
 la famille en "[+ ...]" est optionnelle
-En classification classique de Cronquist (1981)[5] il ne comporte qu'une seule famille :
+En classification classique de Cronquist (1981) il ne comporte qu'une seule famille :
 Asteraceae (famille du tournesol)</t>
         </is>
       </c>
